--- a/reverseprimer-v3_31.xlsx
+++ b/reverseprimer-v3_31.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="reverseprimer-v3_31" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>R2881-ACATCCTGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACATCCTGAAGTCTCGTGGGCTCGG</t>
+    <t>R2881-TCCAGGTCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCAGGTCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>R2882-GACCTACTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACCTACTTGGTCTCGTGGGCTCGG</t>
+    <t>R2882-GACACAGTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACACAGTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>R2883-GCTTGAGTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTTGAGTAGGTCTCGTGGGCTCGG</t>
+    <t>R2883-AGTGCTGTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTGCTGTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>R2884-ACAACCAACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAACCAACAGTCTCGTGGGCTCGG</t>
+    <t>R2884-TAGTTGATCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGTTGATCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>R2885-ATGGTCTCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGGTCTCTAGTCTCGTGGGCTCGG</t>
+    <t>R2885-TCTCAGTCCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCAGTCCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>R2886-TCATCACTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCATCACTCTGTCTCGTGGGCTCGG</t>
+    <t>R2886-TTGGACCAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGGACCAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>R2887-ACTGAACCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTGAACCTCGTCTCGTGGGCTCGG</t>
+    <t>R2887-AACCATGTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACCATGTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>R2888-CGAACAAGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGAACAAGTAGTCTCGTGGGCTCGG</t>
+    <t>R2888-GCTTCATGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTTCATGGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>R2889-TTCGTGACAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCGTGACACGTCTCGTGGGCTCGG</t>
+    <t>R2889-TCAGACAGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAGACAGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>R2890-GATCAGAAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATCAGAAGCGTCTCGTGGGCTCGG</t>
+    <t>R2890-ACAGCTCTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGCTCTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>R2891-ATCGTCAAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCGTCAAGGGTCTCGTGGGCTCGG</t>
+    <t>R2891-GAGACATCAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGACATCAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>R2892-CTCCTCAAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCCTCAAGAGTCTCGTGGGCTCGG</t>
+    <t>R2892-TTGCACATCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGCACATCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>R2893-TTGCTCACAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGCTCACAAGTCTCGTGGGCTCGG</t>
+    <t>R2893-TCTTGTCGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTTGTCGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>R2894-GCTTGCAGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTTGCAGAAGTCTCGTGGGCTCGG</t>
+    <t>R2894-TGCTCTGGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCTCTGGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>R2895-ACTCATGTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCATGTGTGTCTCGTGGGCTCGG</t>
+    <t>R2895-CGTCTACCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTCTACCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>R2896-TTCACACTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCACACTCGGTCTCGTGGGCTCGG</t>
+    <t>R2896-AGACCACACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGACCACACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>R2897-TACTCAGTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACTCAGTCTGTCTCGTGGGCTCGG</t>
+    <t>R2897-CAGAGTAGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGAGTAGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>R2898-CATGACACAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATGACACACGTCTCGTGGGCTCGG</t>
+    <t>R2898-TAGTTGTGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGTTGTGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>R2899-TAGCAGTAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGCAGTAGGGTCTCGTGGGCTCGG</t>
+    <t>R2899-TGACGAAGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGACGAAGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>R2900-TCAACTCTGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAACTCTGCGTCTCGTGGGCTCGG</t>
+    <t>R2900-TCTGTCTGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTGTCTGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>R2901-CTCATGTTCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCATGTTCCGTCTCGTGGGCTCGG</t>
+    <t>R2901-AGATGACGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGATGACGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>R2902-GATGCAGATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATGCAGATGGTCTCGTGGGCTCGG</t>
+    <t>R2902-GTGAGAACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGAGAACAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>R2903-TGGACCAAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGACCAAGAGTCTCGTGGGCTCGG</t>
+    <t>R2903-CCTTGATCAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTTGATCAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>R2904-TGAGACTACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAGACTACGGTCTCGTGGGCTCGG</t>
+    <t>R2904-TAGCACTACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGCACTACCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>R2905-TTCACAGTGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCACAGTGCGTCTCGTGGGCTCGG</t>
+    <t>R2905-AAGTTGACTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGTTGACTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>R2906-AACAGAAGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACAGAAGAGGTCTCGTGGGCTCGG</t>
+    <t>R2906-TACAAGTGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACAAGTGCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>R2907-CTAGTAGAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTAGTAGAGTGTCTCGTGGGCTCGG</t>
+    <t>R2907-CATCACGTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATCACGTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>R2908-ACGTCTGGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGTCTGGTAGTCTCGTGGGCTCGG</t>
+    <t>R2908-TGAGGATGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAGGATGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>R2909-GGTGTTGTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTGTTGTAGGTCTCGTGGGCTCGG</t>
+    <t>R2909-GTCACAGTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCACAGTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>R2910-CCTAGTACTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTAGTACTGGTCTCGTGGGCTCGG</t>
+    <t>R2910-CTCGAGATCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCGAGATCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>R2911-CTGTACTCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGTACTCATGTCTCGTGGGCTCGG</t>
+    <t>R2911-ATGTGGAAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGTGGAAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>R2912-TGTTCCAGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTTCCAGTGGTCTCGTGGGCTCGG</t>
+    <t>R2912-TTGGAGATGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGGAGATGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>R2913-TGCACTACAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCACTACAAGTCTCGTGGGCTCGG</t>
+    <t>R2913-CAAGAGTCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAAGAGTCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>R2914-GACACTGAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACACTGAGTGTCTCGTGGGCTCGG</t>
+    <t>R2914-AGAACTGGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAACTGGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>R2915-ACAGTGACTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGTGACTCGTCTCGTGGGCTCGG</t>
+    <t>R2915-AGCTAGCTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCTAGCTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>R2916-GAACCTTGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACCTTGGTGTCTCGTGGGCTCGG</t>
+    <t>R2916-GTTGTTGCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTGTTGCACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>R2917-ATCACAGCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCACAGCTTGTCTCGTGGGCTCGG</t>
+    <t>R2917-GGAAGGATCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGAAGGATCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>R2918-AGACTAGTCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACTAGTCCGTCTCGTGGGCTCGG</t>
+    <t>R2918-TAGACAAGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGACAAGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>R2919-AAGCACACAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGCACACAAGTCTCGTGGGCTCGG</t>
+    <t>R2919-CACTGTTGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACTGTTGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>R2920-GATCCAAGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATCCAAGTGGTCTCGTGGGCTCGG</t>
+    <t>R2920-TGCTGACGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCTGACGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>R2921-ACTTCGTCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTTCGTCTTGTCTCGTGGGCTCGG</t>
+    <t>R2921-GACTGTAGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACTGTAGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>R2922-GATCAGGTCA</t>
+    <t>R2922-TTGTTCGAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGTTCGAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>R2923-GATGAAGCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATGAAGCTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>R2924-CAACCAGACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACCAGACTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>R2925-TGTGAAGAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTGAAGAGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>R2926-ACTGGACAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTGGACAAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>R2927-GATCAGGTCA</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATGATCAGGTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>R2923-ACTCAGGAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCAGGAAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>R2924-ACGTAGGTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGTAGGTTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>R2925-TCACTCGATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCACTCGATCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>R2926-TCAGTAGCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAGTAGCTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>R2927-TCAGAGCTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAGAGCTGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
     <t>D12</t>
   </si>
   <si>
-    <t>R2928-TCGACTCCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGACTCCATGTCTCGTGGGCTCGG</t>
+    <t>R2928-ATCTTGCTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCTTGCTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>R2929-GTTGTTCGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTGTTCGTCGTCTCGTGGGCTCGG</t>
+    <t>R2929-ACTCTGTGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCTGTGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>R2930-CTCCACACAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCCACACAAGTCTCGTGGGCTCGG</t>
+    <t>R2930-GCTACTGACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTACTGACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>R2931-AGTCTCGTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTCTCGTTGGTCTCGTGGGCTCGG</t>
+    <t>R2931-TAGAGATGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGAGATGGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>R2932-TTCTGACTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCTGACTCTGTCTCGTGGGCTCGG</t>
+    <t>R2932-ATGAACGAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGAACGAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>R2933-GTAGTGTCCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTAGTGTCCTGTCTCGTGGGCTCGG</t>
+    <t>R2933-CGTAGAGTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTAGAGTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>R2934-AGGTTCAAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGTTCAAGGGTCTCGTGGGCTCGG</t>
+    <t>R2934-GGAGATCAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGAGATCAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>R2935-CGTCATGCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTCATGCAAGTCTCGTGGGCTCGG</t>
+    <t>R2935-AACTGATGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTGATGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>R2936-CGTCACAGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTCACAGTAGTCTCGTGGGCTCGG</t>
+    <t>R2936-TCCTGAGCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCTGAGCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>R2937-CGAAGTTGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGAAGTTGCTGTCTCGTGGGCTCGG</t>
+    <t>R2937-GAAGAACGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGAACGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>R2938-CAGACTACAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGACTACAAGTCTCGTGGGCTCGG</t>
+    <t>R2938-AACACTCCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACACTCCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>R2939-TCCAAGCTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCAAGCTAGGTCTCGTGGGCTCGG</t>
+    <t>R2939-GTACTCCTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTACTCCTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>R2940-GGTGACTAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTGACTAGTGTCTCGTGGGCTCGG</t>
+    <t>R2940-CTTCGATCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTCGATCTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>R2941-ACTACAGCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTACAGCATGTCTCGTGGGCTCGG</t>
+    <t>R2941-CATGTGCACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATGTGCACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>R2942-AGTCAGAACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTCAGAACGGTCTCGTGGGCTCGG</t>
+    <t>R2942-GTAGGTCATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTAGGTCATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>R2943-CCTTCAGTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTTCAGTTGGTCTCGTGGGCTCGG</t>
+    <t>R2943-TGGAACTTCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGAACTTCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>R2944-GTGACGAAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGACGAAGTGTCTCGTGGGCTCGG</t>
+    <t>R2944-ACTAGCTGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTAGCTGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>R2945-TCGAGGATCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGAGGATCAGTCTCGTGGGCTCGG</t>
+    <t>R2945-CTGGTTCAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGGTTCAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>R2946-GATGTCTTGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATGTCTTGCGTCTCGTGGGCTCGG</t>
+    <t>R2946-CGTGTACATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTGTACATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>R2947-CTTGCTCACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTGCTCACAGTCTCGTGGGCTCGG</t>
+    <t>R2947-CAGATGACAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGATGACATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>R2948-GAAGACGATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGACGATGGTCTCGTGGGCTCGG</t>
+    <t>R2948-GTCAGATCCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCAGATCCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>R2949-ACCTTGATGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCTTGATGGGTCTCGTGGGCTCGG</t>
+    <t>R2949-GTAGCACGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTAGCACGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>R2950-TTCCACGTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCCACGTCTGTCTCGTGGGCTCGG</t>
+    <t>R2950-AGTTCGTTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTTCGTTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>R2951-GACCTTGGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACCTTGGAAGTCTCGTGGGCTCGG</t>
+    <t>R2951-ACTCCAACCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCCAACCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>R2952-ACCTACTGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCTACTGTAGTCTCGTGGGCTCGG</t>
+    <t>R2952-AGGTGATGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGTGATGGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>R2953-GTCGATCTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCGATCTGTGTCTCGTGGGCTCGG</t>
+    <t>R2953-ATGGACTTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGGACTTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>R2954-CTAGGACGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTAGGACGAAGTCTCGTGGGCTCGG</t>
+    <t>R2954-TTCCATGTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCCATGTGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>R2955-GTGCAGTACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGCAGTACAGTCTCGTGGGCTCGG</t>
+    <t>R2955-AGTTGCAGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTTGCAGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>R2956-CGAAGTCTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGAAGTCTAGGTCTCGTGGGCTCGG</t>
+    <t>R2956-ACTGTTGTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTGTTGTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>R2957-GAACTCAGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACTCAGTGGTCTCGTGGGCTCGG</t>
+    <t>R2957-CATGACGAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATGACGAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>R2958-TAGCTGAGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGCTGAGTCGTCTCGTGGGCTCGG</t>
+    <t>R2958-ACACCTTCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACCTTCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>R2959-AGTGCAAGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTGCAAGAGGTCTCGTGGGCTCGG</t>
+    <t>R2959-GAACACACAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACACACATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>R2960-TTGCACTCGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGCACTCGAGTCTCGTGGGCTCGG</t>
+    <t>R2960-GACTTCCTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACTTCCTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>R2961-AGACTTGGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACTTGGATGTCTCGTGGGCTCGG</t>
+    <t>R2961-TCTCCAGTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCCAGTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>R2962-TACACCTCGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACACCTCGAGTCTCGTGGGCTCGG</t>
+    <t>R2962-CTACTGACAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTACTGACACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>R2963-GGTACATGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTACATGCTGTCTCGTGGGCTCGG</t>
+    <t>R2963-CAAGTGTAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAAGTGTAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>R2964-GTTGACACTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTGACACTCGTCTCGTGGGCTCGG</t>
+    <t>R2964-TCTTCGAACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTTCGAACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>R2965-CCTTGAGAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTTGAGAACGTCTCGTGGGCTCGG</t>
+    <t>R2965-TGACAAGGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGACAAGGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>R2966-ACCTACGACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCTACGACTGTCTCGTGGGCTCGG</t>
+    <t>R2966-CTAGCATGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTAGCATGCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>R2967-GTTGCAGAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTGCAGAGTGTCTCGTGGGCTCGG</t>
+    <t>R2967-CAGTAGAGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGTAGAGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>R2968-TTCCTCTGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCCTCTGACGTCTCGTGGGCTCGG</t>
+    <t>R2968-ACGAGAGGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGAGAGGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>R2969-CTGAGATGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGAGATGAGGTCTCGTGGGCTCGG</t>
+    <t>R2969-TGAACACAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAACACAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>R2970-TCGAGATCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGAGATCTGGTCTCGTGGGCTCGG</t>
+    <t>R2970-TAGTCCACTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGTCCACTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>R2971-TCTAGCATGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTAGCATGGGTCTCGTGGGCTCGG</t>
+    <t>R2971-ATCCACAACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCCACAACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>R2972-TGTTGGTAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTTGGTAGCGTCTCGTGGGCTCGG</t>
+    <t>R2972-TAGGACTCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGGACTCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>R2973-TACAGAGAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACAGAGAGAGTCTCGTGGGCTCGG</t>
+    <t>R2973-TGTTCTGTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTTCTGTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>R2974-CCTTCTTCCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTTCTTCCAGTCTCGTGGGCTCGG</t>
+    <t>R2974-AACGTAGAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACGTAGAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>R2975-TCGACAGACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGACAGACAGTCTCGTGGGCTCGG</t>
+    <t>R2975-CAGTGGTCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGTGGTCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>R2976-CTCAGAGTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCAGAGTTGGTCTCGTGGGCTCGG</t>
+    <t>R2976-AACAGTAGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACAGTAGGTGTCTCGTGGGCTCGG</t>
   </si>
 </sst>
 </file>
